--- a/biology/Botanique/Plagiostachys/Plagiostachys.xlsx
+++ b/biology/Botanique/Plagiostachys/Plagiostachys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plagiostachys est un genre de plantes de la famille des Zingiberaceae originaire de Malaisie et, pour une espèce, de Chine, qui fut décrit pour la première fois en 1899 par Henry Nicholas Ridley dans le "Journal of the Straits Branch of the Royal Asiatic Society.(Singapore) "[1]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plagiostachys est un genre de plantes de la famille des Zingiberaceae originaire de Malaisie et, pour une espèce, de Chine, qui fut décrit pour la première fois en 1899 par Henry Nicholas Ridley dans le "Journal of the Straits Branch of the Royal Asiatic Society.(Singapore) "
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (21 juil. 2010)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (21 juil. 2010) :
 Plagiostachys albiflora Ridl. (1908)
 Plagiostachys austrosinensis T.L.Wu &amp; S.J.Chen (1978)
 Plagiostachys bracteolata R.M.Sm. (1985)
@@ -541,7 +555,7 @@
 Plagiostachys sumatrensis Ridl. (1926)
 Plagiostachys uviformis (L.) Loes. (1930)
 Plagiostachys viridisepala Julius &amp; A.Takano (2007)
-Selon NCBI  (21 sept. 2011)[3] :
+Selon NCBI  (21 sept. 2011) :
 Plagiostachys albiflora
 Plagiostachys apicaudata
 Plagiostachys brevicuculata
@@ -590,9 +604,11 @@
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (20 juil. 2010)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (20 juil. 2010) :
 Plagiostachys borneensis Ridl., (1906) = Plagiostachys strobilifera (Baker) Ridl. (1899)
 Plagiostachys brachypoda (K.Schum.) Loes. in H.G.A.Engler, (1930) = Plagiostachys strobilifera (Baker) Ridl. (1899)
 Plagiostachys elliptica S.Q.Tong &amp; Y.M.Xia, (1987) = Zingiber ellipticum (S.Q.Tong &amp; Y.M.Xia) Q.G.Wu &amp; T.L.Wu, (1996).
